--- a/氣象性能評估工具V2/data/obs/2016-06-03_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-03_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="216">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>22.4</t>
+  </si>
+  <si>
     <t>2016-06-03-00</t>
   </si>
   <si>
-    <t>22.4</t>
-  </si>
-  <si>
     <t>25.4</t>
   </si>
   <si>
@@ -160,12 +160,12 @@
     <t>29.3</t>
   </si>
   <si>
+    <t>22.1</t>
+  </si>
+  <si>
     <t>2016-06-03-01</t>
   </si>
   <si>
-    <t>22.1</t>
-  </si>
-  <si>
     <t>25.3</t>
   </si>
   <si>
@@ -235,12 +235,12 @@
     <t>28.8</t>
   </si>
   <si>
+    <t>22.2</t>
+  </si>
+  <si>
     <t>2016-06-03-03</t>
   </si>
   <si>
-    <t>22.2</t>
-  </si>
-  <si>
     <t>23.2</t>
   </si>
   <si>
@@ -283,12 +283,12 @@
     <t>28.5</t>
   </si>
   <si>
+    <t>22.0</t>
+  </si>
+  <si>
     <t>2016-06-03-05</t>
   </si>
   <si>
-    <t>22.0</t>
-  </si>
-  <si>
     <t>26.9</t>
   </si>
   <si>
@@ -298,12 +298,12 @@
     <t>29.1</t>
   </si>
   <si>
+    <t>21.9</t>
+  </si>
+  <si>
     <t>2016-06-03-06</t>
   </si>
   <si>
-    <t>21.9</t>
-  </si>
-  <si>
     <t>14.6</t>
   </si>
   <si>
@@ -316,12 +316,12 @@
     <t>30.2</t>
   </si>
   <si>
+    <t>21.8</t>
+  </si>
+  <si>
     <t>2016-06-03-07</t>
   </si>
   <si>
-    <t>21.8</t>
-  </si>
-  <si>
     <t>27.3</t>
   </si>
   <si>
@@ -373,12 +373,12 @@
     <t>31.8</t>
   </si>
   <si>
+    <t>22.3</t>
+  </si>
+  <si>
     <t>2016-06-03-09</t>
   </si>
   <si>
-    <t>22.3</t>
-  </si>
-  <si>
     <t>23.8</t>
   </si>
   <si>
@@ -436,12 +436,12 @@
     <t>36.8</t>
   </si>
   <si>
+    <t>24.0</t>
+  </si>
+  <si>
     <t>2016-06-03-11</t>
   </si>
   <si>
-    <t>24.0</t>
-  </si>
-  <si>
     <t>30.0</t>
   </si>
   <si>
@@ -469,12 +469,12 @@
     <t>37.3</t>
   </si>
   <si>
+    <t>24.7</t>
+  </si>
+  <si>
     <t>2016-06-03-12</t>
   </si>
   <si>
-    <t>24.7</t>
-  </si>
-  <si>
     <t>33.5</t>
   </si>
   <si>
@@ -508,12 +508,12 @@
     <t>33.0</t>
   </si>
   <si>
+    <t>24.2</t>
+  </si>
+  <si>
     <t>2016-06-03-13</t>
   </si>
   <si>
-    <t>24.2</t>
-  </si>
-  <si>
     <t>35.2</t>
   </si>
   <si>
@@ -538,12 +538,12 @@
     <t>37.5</t>
   </si>
   <si>
+    <t>24.3</t>
+  </si>
+  <si>
     <t>2016-06-03-14</t>
   </si>
   <si>
-    <t>24.3</t>
-  </si>
-  <si>
     <t>34.8</t>
   </si>
   <si>
@@ -556,12 +556,12 @@
     <t>33.3</t>
   </si>
   <si>
+    <t>24.1</t>
+  </si>
+  <si>
     <t>2016-06-03-15</t>
   </si>
   <si>
-    <t>24.1</t>
-  </si>
-  <si>
     <t>30.7</t>
   </si>
   <si>
@@ -574,12 +574,12 @@
     <t>8.1</t>
   </si>
   <si>
+    <t>23.9</t>
+  </si>
+  <si>
     <t>2016-06-03-16</t>
   </si>
   <si>
-    <t>23.9</t>
-  </si>
-  <si>
     <t>30.4</t>
   </si>
   <si>
@@ -589,34 +589,34 @@
     <t>31.2</t>
   </si>
   <si>
+    <t>23.6</t>
+  </si>
+  <si>
     <t>2016-06-03-17</t>
   </si>
   <si>
-    <t>23.6</t>
-  </si>
-  <si>
     <t>16.6</t>
   </si>
   <si>
     <t>7.5</t>
   </si>
   <si>
+    <t>23.4</t>
+  </si>
+  <si>
     <t>2016-06-03-18</t>
   </si>
   <si>
-    <t>23.4</t>
-  </si>
-  <si>
     <t>29.9</t>
   </si>
   <si>
     <t>29.7</t>
   </si>
   <si>
+    <t>23.7</t>
+  </si>
+  <si>
     <t>2016-06-03-19</t>
-  </si>
-  <si>
-    <t>23.7</t>
   </si>
   <si>
     <t>22.8</t>
@@ -668,6 +668,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -697,8 +700,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,11 +1081,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1154,11 +1158,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -1231,11 +1235,11 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -1308,11 +1312,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
         <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>74</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -1385,11 +1389,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -1462,11 +1466,11 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
         <v>89</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
@@ -1539,11 +1543,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
         <v>94</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -1616,11 +1620,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
         <v>100</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -1693,11 +1697,11 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -1770,11 +1774,11 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
         <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>120</v>
       </c>
       <c r="C11" t="s">
         <v>59</v>
@@ -1847,7 +1851,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B12" t="s">
@@ -1924,11 +1928,11 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" t="s">
         <v>140</v>
-      </c>
-      <c r="B13" t="s">
-        <v>141</v>
       </c>
       <c r="C13" t="s">
         <v>142</v>
@@ -2001,11 +2005,11 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" t="s">
         <v>151</v>
-      </c>
-      <c r="B14" t="s">
-        <v>152</v>
       </c>
       <c r="C14" t="s">
         <v>107</v>
@@ -2078,11 +2082,11 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" t="s">
         <v>164</v>
-      </c>
-      <c r="B15" t="s">
-        <v>165</v>
       </c>
       <c r="C15" t="s">
         <v>107</v>
@@ -2155,11 +2159,11 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" t="s">
         <v>174</v>
-      </c>
-      <c r="B16" t="s">
-        <v>175</v>
       </c>
       <c r="C16" t="s">
         <v>130</v>
@@ -2232,11 +2236,11 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" t="s">
         <v>180</v>
-      </c>
-      <c r="B17" t="s">
-        <v>181</v>
       </c>
       <c r="C17" t="s">
         <v>182</v>
@@ -2309,11 +2313,11 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" t="s">
         <v>186</v>
-      </c>
-      <c r="B18" t="s">
-        <v>187</v>
       </c>
       <c r="C18" t="s">
         <v>188</v>
@@ -2386,11 +2390,11 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" t="s">
         <v>191</v>
-      </c>
-      <c r="B19" t="s">
-        <v>192</v>
       </c>
       <c r="C19" t="s">
         <v>103</v>
@@ -2429,7 +2433,7 @@
         <v>106</v>
       </c>
       <c r="O19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P19" t="s">
         <v>193</v>
@@ -2463,11 +2467,11 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" t="s">
         <v>195</v>
-      </c>
-      <c r="B20" t="s">
-        <v>196</v>
       </c>
       <c r="C20" t="s">
         <v>122</v>
@@ -2540,11 +2544,11 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" t="s">
         <v>199</v>
-      </c>
-      <c r="B21" t="s">
-        <v>200</v>
       </c>
       <c r="C21" t="s">
         <v>72</v>
@@ -2617,11 +2621,11 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -2694,17 +2698,17 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E23" t="s">
         <v>83</v>
@@ -2771,7 +2775,7 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B24" t="s">
@@ -2848,7 +2852,7 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B25" t="s">
